--- a/UAT Template.xlsx
+++ b/UAT Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s7324\iCloudDrive\Desktop\Kognitive Technologien und Anwendungen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex-\Documents\GitHub\AppDesignDVD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16BACA52-2197-433E-ADEA-3949B02C1269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76CE6A8-E5D6-4EF2-9F8F-ABFF27965315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6E1B085-F7AD-4CCF-B32C-CCD2A4F7A676}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{A6E1B085-F7AD-4CCF-B32C-CCD2A4F7A676}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Epic</t>
   </si>
@@ -71,6 +71,9 @@
     <t xml:space="preserve">Voraussetzung: Kamerafunktion der App nutzen; Internetverbindung; App Nutzung
 Aktion: Kamera nutzen zum einscannen oder manuelle Eingabe
 Ergebnis: Lebensmittel wurde eingescannt </t>
+  </si>
+  <si>
+    <t>hjffffffffffffffffjfffffffffffff</t>
   </si>
 </sst>
 </file>
@@ -787,21 +790,21 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="92.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.265625" customWidth="1"/>
+    <col min="3" max="3" width="92.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1328125" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" customWidth="1"/>
+    <col min="7" max="7" width="9.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -824,7 +827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -841,7 +844,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -852,16 +855,18 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -870,7 +875,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -879,7 +884,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -888,7 +893,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -897,7 +902,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -906,7 +911,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="53.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -915,7 +920,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
